--- a/pred_ohlcv/54_21/2020-01-20 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-131363.1749901133</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-133862.7685901133</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-165031.2117901133</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-165031.2117901133</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-157145.2117901133</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-157145.2117901133</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-176189.5217901133</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-183887.5540901133</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-192705.9707901133</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-192703.3707901133</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-198847.0879901132</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-198823.4301901133</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-196823.4301901133</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-201706.4404901133</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-211410.4525901132</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-221225.5593199269</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-221013.272219927</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-244921.079019927</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-233774.671919927</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-238978.897519927</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-256191.3675199269</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-255803.901519927</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-255803.901519927</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-255803.901519927</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-260470.473919927</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-260470.473919927</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-260470.473919927</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-378823.9491199271</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-374434.8426199271</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-373636.8427199271</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-371848.5423199271</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-371848.5423199271</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-371075.1666199272</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-373634.2717199271</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-373631.6717199272</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-379564.6717199272</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-378488.6717199272</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-378488.6717199272</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-411177.3317199271</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-409928.1659199271</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-410432.2491199271</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-410432.2491199271</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-409848.2329199271</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-437365.6908199271</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-436958.2781199271</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-436962.7281199271</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-436962.7281199271</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-437296.0186199271</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-437296.0186199271</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-437296.0186199271</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-437296.0186199271</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-436776.6286199271</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-436546.7820199271</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-437556.1502199271</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-441602.3781199271</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-441602.3781199271</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-441602.3781199271</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-441602.3781199271</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-446453.9313199272</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-446453.9313199272</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-447887.6650199271</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-447524.6527199271</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-462827.6527199271</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-462805.6827199272</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-466368.1649199272</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-465305.5917199272</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-460017.5917199272</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-460265.0117199272</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-445808.7004199272</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-543572.3663440287</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-545174.7186440288</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-545174.7186440288</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-544420.7186440288</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-544420.7186440288</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-557401.3653440288</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-551743.4005440288</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-551520.2691440289</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-556900.2691440289</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-556900.2691440289</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-556647.6691440289</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-560420.7306440289</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-563713.2701440288</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-564233.2701440288</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-567406.2771440288</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-571552.4908440288</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-571946.4908440288</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-570321.4157440288</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-571223.1745440287</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-571223.1745440287</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-581145.8006440287</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-581145.8006440287</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-580980.9204440287</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-581926.9629440287</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-581944.9629440287</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-582815.1261440286</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-575746.3750440286</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-575467.4023440286</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-575367.4597550473</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-575167.7263387546</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-575188.8063387546</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-574672.8650387545</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-571104.6892387546</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-572898.0192387546</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-576928.6792387547</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-579636.6349387547</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-579636.6349387547</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-677698.4548191174</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-678211.4548191174</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-678203.4648191174</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-678203.4648191174</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-678203.4648191174</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-678075.5648191174</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-678057.5948191175</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-678557.5948191175</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-668078.8162191175</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-668148.2893191174</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-671978.8558191174</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-671978.8558191174</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-672207.6445191174</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-681018.9693191174</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-701690.2886273676</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-701672.2886273676</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-701886.3937273676</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-703984.9938273676</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-703984.9938273676</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-703984.9938273676</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-703930.7078273676</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-703930.7078273676</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-708414.0967273676</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-708364.2293273676</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-708472.4119273676</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-708472.4119273676</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-708472.4119273676</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-708469.4119273676</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-708469.4119273676</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-709433.9766273675</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-710604.6917273676</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-711271.0017273676</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-710594.0017273676</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-717860.3811273676</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-717857.3811273676</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-719259.2648273676</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-867974.1300376509</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-867655.1107376509</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-875404.9034376509</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-875400.1986376509</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-868598.3716376509</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-868577.7591376508</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-878821.4879376509</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-877419.8128376509</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-877314.0006376508</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-881992.5406376509</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-889903.7718376509</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-892044.473637651</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-891793.473637651</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-891430.364737651</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-950079.6954376509</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-950079.6954376509</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-943521.0129376509</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-942881.2135376509</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-943155.2135376509</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-945161.7993376509</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-944888.5910376508</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-944858.5910376508</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-944842.1252376508</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-945485.6613376508</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-944985.6613376508</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-944988.3913376508</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-944985.6679376508</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-944985.6679376508</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-944326.6040376509</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-944326.6040376509</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-945028.0259376509</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-941317.4393547548</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-941077.2773547547</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-941077.2773547547</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-941074.6273547547</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-941074.6273547547</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-131363.1749901133</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-133862.7685901133</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-165031.2117901133</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-165031.2117901133</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-157145.2117901133</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-157145.2117901133</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-176189.5217901133</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-183887.5540901133</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-192705.9707901133</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-192703.3707901133</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-198847.0879901132</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-198823.4301901133</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-196823.4301901133</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-201706.4404901133</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-211410.4525901132</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-211400.4525901132</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-221225.5593199269</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-221013.272219927</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-220513.272219927</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-220510.672219927</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-244897.409019927</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-244921.079019927</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-244643.938019927</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-233774.671919927</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-233774.671919927</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-238978.897519927</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-238978.897519927</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-243045.215719927</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-244232.826919927</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-244222.826919927</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-249054.076219927</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-251916.348319927</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-241916.348319927</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-241280.348319927</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-241290.348319927</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-241290.348319927</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-255211.567519927</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-256191.3675199269</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-255803.901519927</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-255803.901519927</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-260465.259319927</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-260470.473919927</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-260470.473919927</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-260470.473919927</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-378823.9491199271</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-374434.8426199271</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-373636.8427199271</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-371848.5423199271</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-371848.5423199271</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-371075.1666199272</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-373634.2717199271</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-373631.6717199272</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-379564.6717199272</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-378488.6717199272</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-378488.6717199272</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-411177.3317199271</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-409928.1659199271</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-410432.2491199271</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-409848.2329199271</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-436958.2781199271</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-436962.7281199271</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-436962.7281199271</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-460017.5917199272</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-447794.9487199272</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-445808.7004199272</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-543572.3663440287</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-545174.7186440288</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-545174.7186440288</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-544420.7186440288</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-544420.7186440288</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-557401.3653440288</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-551743.4005440288</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-551520.2691440289</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-556900.2691440289</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-556900.2691440289</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-556647.6691440289</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-560420.7306440289</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-563713.2701440288</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-564233.2701440288</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-567406.2771440288</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-571552.4908440288</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-571946.4908440288</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-570321.4157440288</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-571223.1745440287</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-571223.1745440287</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-581145.8006440287</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-581145.8006440287</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-580980.9204440287</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-581926.9629440287</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-581944.9629440287</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-582815.1261440286</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-575746.3750440286</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-575467.4023440286</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-575367.4597550473</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-575167.7263387546</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-575188.8063387546</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-574672.8650387545</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-571104.6892387546</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-572898.0192387546</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-576928.6792387547</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-579636.6349387547</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-579636.6349387547</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-707671.4306191175</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-699569.9977191174</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-699517.5177191175</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-699517.5177191175</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-699539.6277191174</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-699517.7777191175</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-677698.4548191174</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-678203.4648191174</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-678075.5648191174</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-678057.5948191175</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-678557.5948191175</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-668078.8162191175</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-668148.2893191174</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-671978.8558191174</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-671978.8558191174</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-672207.6445191174</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-681018.9693191174</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-701690.2886273676</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-701672.2886273676</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-701886.3937273676</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-703984.9938273676</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-703984.9938273676</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-703984.9938273676</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-703930.7078273676</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-703930.7078273676</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-708414.0967273676</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-708364.2293273676</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-708472.4119273676</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-708472.4119273676</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-708472.4119273676</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-708469.4119273676</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-708469.4119273676</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-709433.9766273675</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-710604.6917273676</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-711271.0017273676</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-710594.0017273676</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-717860.3811273676</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-717857.3811273676</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-719259.2648273676</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-867974.1300376509</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-867655.1107376509</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-875404.9034376509</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-875400.1986376509</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-868598.3716376509</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-868577.7591376508</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-878821.4879376509</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-877419.8128376509</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-877314.0006376508</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-881992.5406376509</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-889903.7718376509</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-892044.473637651</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-891793.473637651</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-891430.364737651</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-950079.6954376509</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-950079.6954376509</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-950079.6954376509</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-943521.0129376509</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-942881.2135376509</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-943155.2135376509</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-945161.7993376509</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-944888.5910376508</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-944858.5910376508</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-944842.1252376508</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-945485.6613376508</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-944985.6613376508</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-944988.3913376508</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-944985.6679376508</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-944985.6679376508</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-944326.6040376509</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-944326.6040376509</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-945028.0259376509</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-934538.347537651</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-944024.9817376509</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-944024.9817376509</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-944173.082937651</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-940669.797637651</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-941317.4393547548</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-941077.2773547547</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-941077.2773547547</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-941074.6273547547</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-941074.6273547547</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-958901.2204547547</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-958901.2204547547</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-958026.2204547547</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
